--- a/study3/presentation_for_paper/study3_result_analysis_by_section_binominal.xlsx
+++ b/study3/presentation_for_paper/study3_result_analysis_by_section_binominal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study3/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{5245ADF4-4E6B-4F67-8469-4F1B064FBBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F4267DE-5B84-41F3-A804-2561F7423951}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{5245ADF4-4E6B-4F67-8469-4F1B064FBBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{313317AB-F54B-4B60-8437-14DE663025D0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{CB60ED0B-9307-4A5B-ABF2-DEDA573CA58C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Section</t>
   </si>
@@ -87,11 +87,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Overall Preference for Blended Ads:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>By Section Preference for Blended Ads</t>
+    <t>Consolidated</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -99,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +117,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -136,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -160,24 +169,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
@@ -190,6 +188,96 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
@@ -203,214 +291,30 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -419,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,102 +336,80 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -581,22 +463,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8721CB14-3B4D-917A-64A1-58EE67DFB8D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3D0CB4-74B8-987A-1F79-E881ABE79901}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,8 +501,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="234950" y="171450"/>
-          <a:ext cx="9817100" cy="2197100"/>
+          <a:off x="355600" y="381000"/>
+          <a:ext cx="9721850" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,24 +856,24 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2">
@@ -1003,12 +885,12 @@
       <c r="E3" s="2">
         <v>90</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
@@ -1020,31 +902,31 @@
       <c r="E4" s="3">
         <v>0.4556</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>0.42220000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" thickBot="1">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>0.59840000000000004</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>0.46079999999999999</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.17019999999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C5:F5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.054</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1054,358 +936,354 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2A399-962F-4A09-AD4F-C283C5B10251}">
-  <dimension ref="B3:R14"/>
+  <dimension ref="C2:AB8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:R14"/>
+      <selection activeCell="AC2" sqref="B2:AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="18" width="6.75" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="3.58203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="0.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="1" style="13" customWidth="1"/>
+    <col min="5" max="8" width="5.1640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="1" style="13" customWidth="1"/>
+    <col min="10" max="13" width="5.1640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="1" style="13" customWidth="1"/>
+    <col min="15" max="18" width="5.1640625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="1" style="13" customWidth="1"/>
+    <col min="20" max="23" width="5.1640625" style="13" customWidth="1"/>
+    <col min="24" max="24" width="1" style="13" customWidth="1"/>
+    <col min="25" max="28" width="5.1640625" style="13" customWidth="1"/>
+    <col min="29" max="29" width="0.75" style="13" customWidth="1"/>
+    <col min="30" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="3:28" ht="6" customHeight="1"/>
+    <row r="3" spans="3:28">
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="21" t="s">
         <v>14</v>
       </c>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
     </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="3:28">
+      <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="M4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="Q4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="22"/>
+      <c r="T4" s="24" t="s">
         <v>3</v>
       </c>
+      <c r="U4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="5" spans="3:28">
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13">
+        <v>32</v>
+      </c>
+      <c r="F5" s="13">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13">
+        <v>26</v>
+      </c>
+      <c r="H5" s="13">
+        <v>26</v>
+      </c>
+      <c r="J5" s="13">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13">
+        <v>21</v>
+      </c>
+      <c r="M5" s="13">
+        <v>21</v>
+      </c>
+      <c r="O5" s="13">
+        <v>16</v>
+      </c>
+      <c r="P5" s="13">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>20</v>
+      </c>
+      <c r="R5" s="13">
+        <v>21</v>
+      </c>
+      <c r="T5" s="13">
+        <v>27</v>
+      </c>
+      <c r="U5" s="13">
+        <v>20</v>
+      </c>
+      <c r="V5" s="13">
+        <v>23</v>
+      </c>
+      <c r="W5" s="13">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="13">
         <v>90</v>
       </c>
-      <c r="D5" s="2">
+      <c r="Z5" s="13">
         <v>90</v>
       </c>
-      <c r="E5" s="2">
+      <c r="AA5" s="13">
         <v>90</v>
       </c>
-      <c r="F5" s="10">
+      <c r="AB5" s="13">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="3:28">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.3846</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
+        <v>0.4667</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0.4556</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0.5333</v>
+      </c>
+      <c r="AB6" s="15">
         <v>0.67779999999999996</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.5333</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4556</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.42220000000000002</v>
-      </c>
     </row>
-    <row r="7" spans="2:18" ht="15" thickBot="1">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="3:28">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="16"/>
+      <c r="E7" s="18">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.1686</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="M7" s="18">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="18">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0.67759999999999998</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0.38329999999999997</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="W7" s="20">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="AB7" s="20">
         <v>1E-3</v>
       </c>
-      <c r="D7" s="13">
-        <v>0.59840000000000004</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.46079999999999999</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.17019999999999999</v>
-      </c>
     </row>
-    <row r="8" spans="2:18" ht="9" customHeight="1"/>
-    <row r="9" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2">
-        <v>26</v>
-      </c>
-      <c r="F12" s="23">
-        <v>32</v>
-      </c>
-      <c r="G12" s="27">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2">
-        <v>21</v>
-      </c>
-      <c r="J12" s="10">
-        <v>15</v>
-      </c>
-      <c r="K12" s="16">
-        <v>21</v>
-      </c>
-      <c r="L12" s="2">
-        <v>23</v>
-      </c>
-      <c r="M12" s="2">
-        <v>20</v>
-      </c>
-      <c r="N12" s="23">
-        <v>16</v>
-      </c>
-      <c r="O12" s="27">
-        <v>22</v>
-      </c>
-      <c r="P12" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>23</v>
-      </c>
-      <c r="R12" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.65380000000000005</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.37040000000000001</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.3846</v>
-      </c>
-      <c r="F13" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.4667</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.43480000000000002</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="N13" s="24">
-        <v>0.3125</v>
-      </c>
-      <c r="O13" s="28">
-        <v>0.72729999999999995</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.60870000000000002</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0.51849999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1">
-      <c r="B14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.1686</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.32690000000000002</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0.21529999999999999</v>
-      </c>
-      <c r="G14" s="29">
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13">
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="J14" s="14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0.38329999999999997</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0.67759999999999998</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0.82379999999999998</v>
-      </c>
-      <c r="N14" s="25">
-        <v>0.21010000000000001</v>
-      </c>
-      <c r="O14" s="29">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0.82379999999999998</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0.40489999999999998</v>
-      </c>
-      <c r="R14" s="14">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="8" spans="3:28" ht="4.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
+  <mergeCells count="5">
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C14:R14">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
-      <formula>0.054</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.054</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1416,7 +1294,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
